--- a/APITestCase.xlsx
+++ b/APITestCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjectTest\testM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProjectTest\TianHongApiTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12278571-3153-463D-850E-902B30EED1AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0588970-0745-4FB8-BCA0-B946DABFF215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginAPI" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.197.63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
 	"Host": "192.168.197.63:9000",
 	"Content-Length": "93",
@@ -123,7 +119,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://192.168.197.63:9000/api/v1/post/report</t>
+    <t>https://192.168.98.129:9000/api/v1/post/report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.98.130</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,8 +213,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -533,13 +533,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>16</v>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30C517C1-791F-4600-9973-7C4F80744299}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -796,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3">
         <v>3306</v>
